--- a/vacinaBot/teste.xlsx
+++ b/vacinaBot/teste.xlsx
@@ -425,13 +425,17 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="13" customWidth="1" min="1" max="1"/>
+    <col width="13" customWidth="1" min="2" max="2"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -448,24 +452,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>13/08/2023</t>
+          <t>14/08/2023</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>516.586.975</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>21/08/2023</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>516.586.975</t>
+          <t>516.589.644</t>
         </is>
       </c>
     </row>
